--- a/data/prediksi S2.xlsx
+++ b/data/prediksi S2.xlsx
@@ -450,7 +450,7 @@
         <v>3.41</v>
       </c>
       <c r="B2" t="n">
-        <v>3.684817984599753</v>
+        <v>3.482020755562674</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>3.23</v>
       </c>
       <c r="B3" t="n">
-        <v>3.70624304603528</v>
+        <v>3.456870964256985</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3.12</v>
       </c>
       <c r="B4" t="n">
-        <v>3.508367906954428</v>
+        <v>3.26178390632107</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3.18</v>
       </c>
       <c r="B5" t="n">
-        <v>3.474429301470572</v>
+        <v>3.205759962327986</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>3.2</v>
       </c>
       <c r="B6" t="n">
-        <v>3.460822873029989</v>
+        <v>3.255693704933834</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2.88</v>
       </c>
       <c r="B7" t="n">
-        <v>3.534196800552066</v>
+        <v>3.276796766911516</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>3.16</v>
       </c>
       <c r="B8" t="n">
-        <v>3.104636752504538</v>
+        <v>2.903365329351558</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>3.23</v>
       </c>
       <c r="B9" t="n">
-        <v>3.480738215833367</v>
+        <v>3.266472231510677</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>3.13</v>
       </c>
       <c r="B10" t="n">
-        <v>3.497488021006599</v>
+        <v>3.281543363606831</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2.82</v>
       </c>
       <c r="B11" t="n">
-        <v>3.395227006095104</v>
+        <v>3.158334884051806</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>3.007261139512365</v>
+        <v>2.836606419054039</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>2.48</v>
       </c>
       <c r="B13" t="n">
-        <v>2.713306401719357</v>
+        <v>2.610224542639735</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>2.83</v>
       </c>
       <c r="B14" t="n">
-        <v>2.652689596670966</v>
+        <v>2.557196789053883</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>3.32</v>
       </c>
       <c r="B15" t="n">
-        <v>3.185017761613778</v>
+        <v>2.973552472848193</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>3.28</v>
       </c>
       <c r="B16" t="n">
-        <v>3.683317443503479</v>
+        <v>3.420705014698082</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>3.32</v>
       </c>
       <c r="B17" t="n">
-        <v>3.513196647877643</v>
+        <v>3.266250962735916</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>3.49</v>
       </c>
       <c r="B18" t="n">
-        <v>3.621232236993491</v>
+        <v>3.350728334260437</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>3.39</v>
       </c>
       <c r="B19" t="n">
-        <v>3.93456474995953</v>
+        <v>3.588633810691058</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>3.13</v>
       </c>
       <c r="B20" t="n">
-        <v>3.794732084960721</v>
+        <v>3.443707476731477</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>3.502763450853564</v>
+        <v>3.187469835614382</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>2.72</v>
       </c>
       <c r="B22" t="n">
-        <v>3.325007909081418</v>
+        <v>3.080419686535413</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>2.68</v>
       </c>
       <c r="B23" t="n">
-        <v>2.857012256325544</v>
+        <v>2.744815846818154</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>2.98</v>
       </c>
       <c r="B24" t="n">
-        <v>2.816526839015814</v>
+        <v>2.727019854438196</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>2.96</v>
       </c>
       <c r="B25" t="n">
-        <v>3.191703401696915</v>
+        <v>3.054349689329547</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>2.67</v>
       </c>
       <c r="B26" t="n">
-        <v>3.052052346792791</v>
+        <v>2.941187141393361</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>2.19</v>
       </c>
       <c r="B27" t="n">
-        <v>2.710264591935635</v>
+        <v>2.633829214209272</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1.96</v>
       </c>
       <c r="B28" t="n">
-        <v>2.243306505017143</v>
+        <v>2.200658242787989</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1.54</v>
       </c>
       <c r="B29" t="n">
-        <v>2.048158776349592</v>
+        <v>2.037710881545573</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1.32</v>
       </c>
       <c r="B30" t="n">
-        <v>1.581471442027062</v>
+        <v>1.606840732414702</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1.42</v>
       </c>
       <c r="B31" t="n">
-        <v>1.378219802813213</v>
+        <v>1.416667594915869</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1.44</v>
       </c>
       <c r="B32" t="n">
-        <v>1.457684579440813</v>
+        <v>1.533972967161756</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.59</v>
       </c>
       <c r="B33" t="n">
-        <v>1.402464563102307</v>
+        <v>1.501583788721571</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.68</v>
       </c>
       <c r="B34" t="n">
-        <v>1.629327285206247</v>
+        <v>1.667970323216325</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.55</v>
       </c>
       <c r="B35" t="n">
-        <v>1.790681218512391</v>
+        <v>1.768319339883806</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.38</v>
       </c>
       <c r="B36" t="n">
-        <v>1.643346321073847</v>
+        <v>1.618363000143975</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.37</v>
       </c>
       <c r="B37" t="n">
-        <v>1.576709024996986</v>
+        <v>1.499729849959683</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.42</v>
       </c>
       <c r="B38" t="n">
-        <v>1.64246874491612</v>
+        <v>1.540621386416836</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.68</v>
       </c>
       <c r="B39" t="n">
-        <v>1.642720801811457</v>
+        <v>1.572854680626573</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.33</v>
       </c>
       <c r="B40" t="n">
-        <v>1.90439130540147</v>
+        <v>1.827099887421941</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.52</v>
       </c>
       <c r="B41" t="n">
-        <v>1.328568336028679</v>
+        <v>1.360095708100619</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.59</v>
       </c>
       <c r="B42" t="n">
-        <v>1.584976241639222</v>
+        <v>1.623675272879338</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.6</v>
       </c>
       <c r="B43" t="n">
-        <v>1.666770609838562</v>
+        <v>1.683060527678017</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.66</v>
       </c>
       <c r="B44" t="n">
-        <v>1.689784038512641</v>
+        <v>1.673791573043105</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.75</v>
       </c>
       <c r="B45" t="n">
-        <v>1.785854735787157</v>
+        <v>1.753572346412516</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.87</v>
       </c>
       <c r="B46" t="n">
-        <v>1.907325789676097</v>
+        <v>1.85129876797578</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>2.18</v>
       </c>
       <c r="B47" t="n">
-        <v>2.012856049273658</v>
+        <v>1.957181004357045</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>2.06</v>
       </c>
       <c r="B48" t="n">
-        <v>2.471977217577034</v>
+        <v>2.307803711816984</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>2.640000000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>2.211200405695296</v>
+        <v>2.098364783135453</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>3.47</v>
       </c>
       <c r="B50" t="n">
-        <v>3.017118607266003</v>
+        <v>2.782426357449167</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>3.55</v>
       </c>
       <c r="B51" t="n">
-        <v>4.075962210580773</v>
+        <v>3.63404109261553</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>4.35</v>
       </c>
       <c r="B52" t="n">
-        <v>4.03990939299888</v>
+        <v>3.563794084954572</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>4.94</v>
       </c>
       <c r="B53" t="n">
-        <v>5.138806298022999</v>
+        <v>4.473663790311019</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>4.69</v>
       </c>
       <c r="B54" t="n">
-        <v>5.859942718708993</v>
+        <v>5.042044817362587</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>5.95</v>
       </c>
       <c r="B55" t="n">
-        <v>5.386822996137821</v>
+        <v>4.632107199006669</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>5.71</v>
       </c>
       <c r="B56" t="n">
-        <v>7.214858985831617</v>
+        <v>6.169865579604512</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>5.42</v>
       </c>
       <c r="B57" t="n">
-        <v>6.663411333258631</v>
+        <v>5.65666952776227</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>5.509999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>6.144954142509881</v>
+        <v>5.306324061096626</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>5.280000000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>6.367273610980444</v>
+        <v>5.544301412366493</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>5.47</v>
       </c>
       <c r="B60" t="n">
-        <v>5.860036674249955</v>
+        <v>5.209911460230151</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>4.97</v>
       </c>
       <c r="B61" t="n">
-        <v>6.021838567395141</v>
+        <v>5.407464038749826</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>4.33</v>
       </c>
       <c r="B62" t="n">
-        <v>5.340800637918095</v>
+        <v>4.848705169697663</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="n">
-        <v>4.23349216008842</v>
+        <v>4.153308237957688</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>3.52</v>
       </c>
       <c r="B64" t="n">
-        <v>3.956993463626555</v>
+        <v>3.933118469309292</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>3.08</v>
       </c>
       <c r="B65" t="n">
-        <v>3.466279484734106</v>
+        <v>3.470795623800231</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>3.27</v>
       </c>
       <c r="B66" t="n">
-        <v>2.97946235483035</v>
+        <v>3.040293893120068</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>2.28</v>
       </c>
       <c r="B67" t="n">
-        <v>3.32304795880736</v>
+        <v>3.324837939260105</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>2.56</v>
       </c>
       <c r="B68" t="n">
-        <v>2.114592011235875</v>
+        <v>2.171324561062623</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>2.86</v>
       </c>
       <c r="B69" t="n">
-        <v>2.741893510244962</v>
+        <v>2.675109709813585</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>2.61</v>
       </c>
       <c r="B70" t="n">
-        <v>3.181236123409795</v>
+        <v>3.004752483474409</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>2.825683898773165</v>
+        <v>2.625392639728901</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>2.75</v>
       </c>
       <c r="B72" t="n">
-        <v>2.912578880794098</v>
+        <v>2.668653981915489</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>3.05</v>
       </c>
       <c r="B73" t="n">
-        <v>3.288428656931198</v>
+        <v>2.936515385447901</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="n">
-        <v>3.509494146287179</v>
+        <v>3.193980463637033</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>2.84</v>
       </c>
       <c r="B75" t="n">
-        <v>3.493693343620377</v>
+        <v>3.117085255740045</v>
       </c>
     </row>
   </sheetData>
